--- a/data/Roberts_2017AdultExposureSampleInfo.xlsx
+++ b/data/Roberts_2017AdultExposureSampleInfo.xlsx
@@ -40,7 +40,7 @@
     <t xml:space="preserve">Freeze/Thaws</t>
   </si>
   <si>
-    <t xml:space="preserve">17176_m</t>
+    <t xml:space="preserve">17176_m2</t>
   </si>
   <si>
     <t xml:space="preserve">Mantle</t>
@@ -52,73 +52,73 @@
     <t xml:space="preserve">None</t>
   </si>
   <si>
-    <t xml:space="preserve">17174_m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17130_m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17019_m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17145_m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17203_m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17213_m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17005_m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17211_m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17094_m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17178_m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17099_m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17079_m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17162_m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17108_m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17090_m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17122_m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17181_m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17142_m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17013_m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17069_m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17070_m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17072_m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17007_m</t>
+    <t xml:space="preserve">17174_m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17130_m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17019_m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17145_m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17203_m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17213_m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17005_m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17211_m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17094_m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17178_m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17099_m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17079_m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17162_m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17108_m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17090_m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17122_m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17181_m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17142_m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17013_m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17069_m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17070_m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17072_m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17007_m2</t>
   </si>
 </sst>
 </file>
@@ -251,18 +251,17 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
+      <selection pane="topLeft" activeCell="I11" activeCellId="0" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.1734693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="24.1632653061224"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="19.8418367346939"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="23.7602040816327"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="19.5714285714286"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="16.3316326530612"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="13.0918367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
